--- a/PRODUCCION/REG_Marcos.xlsx
+++ b/PRODUCCION/REG_Marcos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgonzalez\Documents\GitHub\Production_Report\PRODUCCION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A876D036-C32F-4D14-870B-556A81AE6030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6C561-6114-4101-A63A-A32A057E8C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C58F0110-C309-437D-BB13-A6EA74AF9B05}"/>
   </bookViews>
@@ -258,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,12 +580,13 @@
   <dimension ref="A1:P343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -612,7 +614,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -638,7 +640,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>44431.394232754632</v>
       </c>
       <c r="B2" t="s">
@@ -670,7 +672,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>44431.394232754632</v>
       </c>
       <c r="B3" t="s">
@@ -726,7 +728,7 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1007974</v>
       </c>
       <c r="J4">
@@ -761,7 +763,7 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1006093</v>
       </c>
       <c r="J5">
@@ -796,7 +798,7 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1006093</v>
       </c>
       <c r="J6">
@@ -831,7 +833,7 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1006093</v>
       </c>
       <c r="J7">
@@ -866,7 +868,7 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>1007974</v>
       </c>
       <c r="J8">
@@ -901,7 +903,7 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1007974</v>
       </c>
       <c r="J9">
@@ -936,7 +938,7 @@
       <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>1007974</v>
       </c>
       <c r="J10">
@@ -971,7 +973,7 @@
       <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>1006093</v>
       </c>
       <c r="J11">
@@ -1006,7 +1008,7 @@
       <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>1006093</v>
       </c>
       <c r="J12">
@@ -1041,7 +1043,7 @@
       <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>1006093</v>
       </c>
       <c r="J13">
@@ -1076,7 +1078,7 @@
       <c r="H14" t="s">
         <v>32</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>1006093</v>
       </c>
       <c r="J14">
@@ -1111,7 +1113,7 @@
       <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>1006093</v>
       </c>
       <c r="J15">
@@ -1146,7 +1148,7 @@
       <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>1006093</v>
       </c>
       <c r="J16">
@@ -1181,7 +1183,7 @@
       <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>1006093</v>
       </c>
       <c r="J17">
@@ -1216,7 +1218,7 @@
       <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>1007974</v>
       </c>
       <c r="J18">
@@ -1251,7 +1253,7 @@
       <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>1007974</v>
       </c>
       <c r="J19">
@@ -1286,7 +1288,7 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>1006093</v>
       </c>
       <c r="J20">
@@ -1321,7 +1323,7 @@
       <c r="H21" t="s">
         <v>29</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>1006093</v>
       </c>
       <c r="J21">
@@ -1356,7 +1358,7 @@
       <c r="H22" t="s">
         <v>32</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>1007974</v>
       </c>
       <c r="J22">
@@ -1391,7 +1393,7 @@
       <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>1007974</v>
       </c>
       <c r="J23">
@@ -1426,7 +1428,7 @@
       <c r="H24" t="s">
         <v>32</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>1004111</v>
       </c>
       <c r="J24">
@@ -1461,7 +1463,7 @@
       <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>1006093</v>
       </c>
       <c r="J25">
@@ -1496,7 +1498,7 @@
       <c r="H26" t="s">
         <v>34</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>1006093</v>
       </c>
       <c r="J26">
@@ -1531,7 +1533,7 @@
       <c r="H27" t="s">
         <v>34</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>1004111</v>
       </c>
       <c r="J27">
@@ -1566,7 +1568,7 @@
       <c r="H28" t="s">
         <v>34</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>1004111</v>
       </c>
       <c r="J28">
@@ -1601,7 +1603,7 @@
       <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>1006093</v>
       </c>
       <c r="J29">
@@ -1636,7 +1638,7 @@
       <c r="H30" t="s">
         <v>32</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>1007974</v>
       </c>
       <c r="J30">
@@ -1671,7 +1673,7 @@
       <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>1007974</v>
       </c>
       <c r="J31">
@@ -1706,7 +1708,7 @@
       <c r="H32" t="s">
         <v>32</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>1007974</v>
       </c>
       <c r="J32">
@@ -1741,7 +1743,7 @@
       <c r="H33" t="s">
         <v>44</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>1007974</v>
       </c>
       <c r="J33">
@@ -1776,7 +1778,7 @@
       <c r="H34" t="s">
         <v>33</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J34">
@@ -1811,7 +1813,7 @@
       <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>1004111</v>
       </c>
       <c r="J35">
@@ -1852,7 +1854,7 @@
       <c r="H36" t="s">
         <v>29</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>1004111</v>
       </c>
       <c r="J36">
@@ -1893,7 +1895,7 @@
       <c r="H37" t="s">
         <v>35</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>1004111</v>
       </c>
       <c r="J37">
@@ -1928,7 +1930,7 @@
       <c r="H38" t="s">
         <v>29</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>1004111</v>
       </c>
       <c r="J38">
@@ -1963,7 +1965,7 @@
       <c r="H39" t="s">
         <v>34</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>1006093</v>
       </c>
       <c r="J39">
@@ -1998,7 +2000,7 @@
       <c r="H40" t="s">
         <v>34</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>1004111</v>
       </c>
       <c r="J40">
@@ -2033,7 +2035,7 @@
       <c r="H41" t="s">
         <v>34</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>1004111</v>
       </c>
       <c r="J41">
@@ -2068,7 +2070,7 @@
       <c r="H42" t="s">
         <v>44</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>1004111</v>
       </c>
       <c r="J42">
@@ -2103,7 +2105,7 @@
       <c r="H43" t="s">
         <v>32</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>1007974</v>
       </c>
       <c r="J43">
@@ -2138,7 +2140,7 @@
       <c r="H44" t="s">
         <v>44</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>1007974</v>
       </c>
       <c r="J44">
@@ -2173,7 +2175,7 @@
       <c r="H45" t="s">
         <v>32</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>1004111</v>
       </c>
       <c r="J45">
@@ -2208,7 +2210,7 @@
       <c r="H46" t="s">
         <v>44</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>1007974</v>
       </c>
       <c r="J46">
@@ -2243,7 +2245,7 @@
       <c r="H47" t="s">
         <v>35</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>1004111</v>
       </c>
       <c r="J47">
@@ -2278,7 +2280,7 @@
       <c r="H48" t="s">
         <v>29</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>1004111</v>
       </c>
       <c r="J48">
@@ -2313,7 +2315,7 @@
       <c r="H49" t="s">
         <v>35</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>1004111</v>
       </c>
       <c r="J49">
@@ -2348,7 +2350,7 @@
       <c r="H50" t="s">
         <v>29</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>1004111</v>
       </c>
       <c r="J50">
@@ -2383,7 +2385,7 @@
       <c r="H51" t="s">
         <v>34</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>1004111</v>
       </c>
       <c r="J51">
@@ -2418,7 +2420,7 @@
       <c r="H52" t="s">
         <v>34</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>1004111</v>
       </c>
       <c r="J52">
@@ -2453,7 +2455,7 @@
       <c r="H53" t="s">
         <v>32</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>1004111</v>
       </c>
       <c r="J53">
@@ -2494,7 +2496,7 @@
       <c r="H54" t="s">
         <v>44</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>1004111</v>
       </c>
       <c r="J54">
@@ -2529,7 +2531,7 @@
       <c r="H55" t="s">
         <v>32</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>1004111</v>
       </c>
       <c r="J55">
@@ -2564,7 +2566,7 @@
       <c r="H56" t="s">
         <v>44</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>1004109</v>
       </c>
       <c r="J56">
@@ -2599,7 +2601,7 @@
       <c r="H57" t="s">
         <v>35</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>1004109</v>
       </c>
       <c r="J57">
@@ -2637,7 +2639,7 @@
       <c r="H58" t="s">
         <v>29</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <v>1004109</v>
       </c>
       <c r="J58">
@@ -2675,7 +2677,7 @@
       <c r="H59" t="s">
         <v>35</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>1004109</v>
       </c>
       <c r="J59">
@@ -2710,7 +2712,7 @@
       <c r="H60" t="s">
         <v>29</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>1004109</v>
       </c>
       <c r="J60">
@@ -2745,7 +2747,7 @@
       <c r="H61" t="s">
         <v>34</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>1004111</v>
       </c>
       <c r="J61">
@@ -2780,7 +2782,7 @@
       <c r="H62" t="s">
         <v>34</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>1004111</v>
       </c>
       <c r="J62">
@@ -2815,7 +2817,7 @@
       <c r="H63" t="s">
         <v>34</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>1004111</v>
       </c>
       <c r="J63">
@@ -2850,7 +2852,7 @@
       <c r="H64" t="s">
         <v>44</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>1004109</v>
       </c>
       <c r="J64">
@@ -2885,7 +2887,7 @@
       <c r="H65" t="s">
         <v>44</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>1004111</v>
       </c>
       <c r="J65">
@@ -2920,7 +2922,7 @@
       <c r="H66" t="s">
         <v>32</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>1004109</v>
       </c>
       <c r="J66">
@@ -2955,7 +2957,7 @@
       <c r="H67" t="s">
         <v>44</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>1004109</v>
       </c>
       <c r="J67">
@@ -2990,7 +2992,7 @@
       <c r="H68" t="s">
         <v>32</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>1004109</v>
       </c>
       <c r="J68">
@@ -3025,7 +3027,7 @@
       <c r="H69" t="s">
         <v>44</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>1004109</v>
       </c>
       <c r="J69">
@@ -3060,7 +3062,7 @@
       <c r="H70" t="s">
         <v>33</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J70">
@@ -3095,7 +3097,7 @@
       <c r="H71" t="s">
         <v>29</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>1004109</v>
       </c>
       <c r="J71">
@@ -3130,7 +3132,7 @@
       <c r="H72" t="s">
         <v>35</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <v>1004109</v>
       </c>
       <c r="J72">
@@ -3165,7 +3167,7 @@
       <c r="H73" t="s">
         <v>29</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <v>1004109</v>
       </c>
       <c r="J73">
@@ -3200,7 +3202,7 @@
       <c r="H74" t="s">
         <v>35</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>1004109</v>
       </c>
       <c r="J74">
@@ -3235,7 +3237,7 @@
       <c r="H75" t="s">
         <v>34</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J75">
@@ -3279,7 +3281,7 @@
       <c r="H76" t="s">
         <v>34</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>6510374</v>
       </c>
       <c r="J76">
@@ -3314,7 +3316,7 @@
       <c r="H77" t="s">
         <v>35</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>1004109</v>
       </c>
       <c r="J77">
@@ -3349,7 +3351,7 @@
       <c r="H78" t="s">
         <v>29</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>1004109</v>
       </c>
       <c r="J78">
@@ -3384,7 +3386,7 @@
       <c r="H79" t="s">
         <v>35</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>1004109</v>
       </c>
       <c r="O79" t="s">
@@ -3416,7 +3418,7 @@
       <c r="H80" t="s">
         <v>29</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>1004109</v>
       </c>
       <c r="O80" t="s">
@@ -3448,7 +3450,7 @@
       <c r="H81" t="s">
         <v>33</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J81">
@@ -3483,7 +3485,7 @@
       <c r="H82" t="s">
         <v>34</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <v>1004109</v>
       </c>
       <c r="J82">
@@ -3518,7 +3520,7 @@
       <c r="H83" t="s">
         <v>32</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>1004109</v>
       </c>
       <c r="J83">
@@ -3553,7 +3555,7 @@
       <c r="H84" t="s">
         <v>34</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>1004109</v>
       </c>
       <c r="J84">
@@ -3588,7 +3590,7 @@
       <c r="H85" t="s">
         <v>32</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>1004109</v>
       </c>
       <c r="J85">
@@ -3623,7 +3625,7 @@
       <c r="H86" t="s">
         <v>35</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>1004109</v>
       </c>
       <c r="J86">
@@ -3658,7 +3660,7 @@
       <c r="H87" t="s">
         <v>29</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <v>1004109</v>
       </c>
       <c r="J87">
@@ -3693,7 +3695,7 @@
       <c r="H88" t="s">
         <v>35</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <v>1004109</v>
       </c>
       <c r="O88" t="s">
@@ -3725,7 +3727,7 @@
       <c r="H89" t="s">
         <v>29</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <v>1004109</v>
       </c>
       <c r="O89" t="s">
@@ -3757,7 +3759,7 @@
       <c r="H90" t="s">
         <v>33</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J90">
@@ -3792,7 +3794,7 @@
       <c r="H91" t="s">
         <v>34</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <v>1004109</v>
       </c>
       <c r="J91">
@@ -3827,7 +3829,7 @@
       <c r="H92" t="s">
         <v>32</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <v>1004109</v>
       </c>
       <c r="J92">
@@ -3862,7 +3864,7 @@
       <c r="H93" t="s">
         <v>34</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>1004109</v>
       </c>
       <c r="J93">
@@ -3897,7 +3899,7 @@
       <c r="H94" t="s">
         <v>32</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <v>1004109</v>
       </c>
       <c r="J94">
@@ -3932,7 +3934,7 @@
       <c r="H95" t="s">
         <v>35</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <v>1004109</v>
       </c>
       <c r="J95">
@@ -3967,7 +3969,7 @@
       <c r="H96" t="s">
         <v>29</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <v>1004109</v>
       </c>
       <c r="J96">
@@ -4002,7 +4004,7 @@
       <c r="H97" t="s">
         <v>35</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <v>1004109</v>
       </c>
       <c r="J97">
@@ -4037,7 +4039,7 @@
       <c r="H98" t="s">
         <v>29</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>1004109</v>
       </c>
       <c r="J98">
@@ -4072,7 +4074,7 @@
       <c r="H99" t="s">
         <v>33</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>1004109</v>
       </c>
       <c r="J99">
@@ -4107,7 +4109,7 @@
       <c r="H100" t="s">
         <v>34</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>1004109</v>
       </c>
       <c r="J100">
@@ -4142,7 +4144,7 @@
       <c r="H101" t="s">
         <v>32</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="2">
         <v>1004109</v>
       </c>
       <c r="J101">
@@ -4177,7 +4179,7 @@
       <c r="H102" t="s">
         <v>34</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="2">
         <v>1004109</v>
       </c>
       <c r="J102">
@@ -4212,7 +4214,7 @@
       <c r="H103" t="s">
         <v>32</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="2">
         <v>1004109</v>
       </c>
       <c r="J103">
@@ -4247,7 +4249,7 @@
       <c r="H104" t="s">
         <v>35</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="2">
         <v>1004110</v>
       </c>
       <c r="J104">
@@ -4282,7 +4284,7 @@
       <c r="H105" t="s">
         <v>29</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="2">
         <v>1004110</v>
       </c>
       <c r="J105">
@@ -4317,7 +4319,7 @@
       <c r="H106" t="s">
         <v>35</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="2">
         <v>1004110</v>
       </c>
       <c r="O106" t="s">
@@ -4349,7 +4351,7 @@
       <c r="H107" t="s">
         <v>29</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="2">
         <v>1004110</v>
       </c>
       <c r="O107" t="s">
@@ -4381,7 +4383,7 @@
       <c r="H108" t="s">
         <v>34</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="2">
         <v>1004110</v>
       </c>
       <c r="J108">
@@ -4416,7 +4418,7 @@
       <c r="H109" t="s">
         <v>32</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="2">
         <v>1004110</v>
       </c>
       <c r="J109">
@@ -4451,7 +4453,7 @@
       <c r="H110" t="s">
         <v>34</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <v>1004110</v>
       </c>
       <c r="J110">
@@ -4486,7 +4488,7 @@
       <c r="H111" t="s">
         <v>32</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="2">
         <v>1004110</v>
       </c>
       <c r="J111">
@@ -4521,7 +4523,7 @@
       <c r="H112" t="s">
         <v>35</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="2">
         <v>1004110</v>
       </c>
       <c r="J112">
@@ -4556,7 +4558,7 @@
       <c r="H113" t="s">
         <v>35</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="2">
         <v>1007976</v>
       </c>
       <c r="J113">
@@ -4591,7 +4593,7 @@
       <c r="H114" t="s">
         <v>29</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="2">
         <v>1004110</v>
       </c>
       <c r="J114">
@@ -4635,7 +4637,7 @@
       <c r="H115" t="s">
         <v>29</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="2">
         <v>1007976</v>
       </c>
       <c r="J115">
@@ -4670,7 +4672,7 @@
       <c r="H116" t="s">
         <v>35</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="2">
         <v>1004110</v>
       </c>
       <c r="J116">
@@ -4705,7 +4707,7 @@
       <c r="H117" t="s">
         <v>35</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="2">
         <v>1007976</v>
       </c>
       <c r="J117">
@@ -4740,7 +4742,7 @@
       <c r="H118" t="s">
         <v>29</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="2">
         <v>1004110</v>
       </c>
       <c r="J118">
@@ -4775,7 +4777,7 @@
       <c r="H119" t="s">
         <v>29</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="2">
         <v>1007976</v>
       </c>
       <c r="J119">
@@ -4810,7 +4812,7 @@
       <c r="H120" t="s">
         <v>33</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J120">
@@ -4845,7 +4847,7 @@
       <c r="H121" t="s">
         <v>34</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="2">
         <v>1007976</v>
       </c>
       <c r="J121">
@@ -4880,7 +4882,7 @@
       <c r="H122" t="s">
         <v>32</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="2">
         <v>1007976</v>
       </c>
       <c r="J122">
@@ -4915,7 +4917,7 @@
       <c r="H123" t="s">
         <v>34</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="2">
         <v>1007976</v>
       </c>
       <c r="J123">
@@ -4950,7 +4952,7 @@
       <c r="H124" t="s">
         <v>32</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="2">
         <v>1007976</v>
       </c>
       <c r="J124">
@@ -4985,7 +4987,7 @@
       <c r="H125" t="s">
         <v>33</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J125">
@@ -5020,7 +5022,7 @@
       <c r="H126" t="s">
         <v>34</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="2">
         <v>1007976</v>
       </c>
       <c r="J126">
@@ -5055,7 +5057,7 @@
       <c r="H127" t="s">
         <v>32</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="2">
         <v>1007976</v>
       </c>
       <c r="J127">
@@ -5090,7 +5092,7 @@
       <c r="H128" t="s">
         <v>34</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="2">
         <v>1007976</v>
       </c>
       <c r="J128">
@@ -5125,7 +5127,7 @@
       <c r="H129" t="s">
         <v>32</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="2">
         <v>1007976</v>
       </c>
       <c r="J129">
@@ -5160,7 +5162,7 @@
       <c r="H130" t="s">
         <v>35</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="2">
         <v>1007976</v>
       </c>
       <c r="J130">
@@ -5195,7 +5197,7 @@
       <c r="H131" t="s">
         <v>29</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="2">
         <v>1007976</v>
       </c>
       <c r="J131">
@@ -5230,7 +5232,7 @@
       <c r="H132" t="s">
         <v>35</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="2">
         <v>1007976</v>
       </c>
       <c r="J132">
@@ -5265,7 +5267,7 @@
       <c r="H133" t="s">
         <v>29</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="2">
         <v>1007976</v>
       </c>
       <c r="J133">
@@ -5300,7 +5302,7 @@
       <c r="H134" t="s">
         <v>29</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="2">
         <v>1007976</v>
       </c>
       <c r="J134">
@@ -5338,7 +5340,7 @@
       <c r="H135" t="s">
         <v>35</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="2">
         <v>1007976</v>
       </c>
       <c r="J135">
@@ -5376,7 +5378,7 @@
       <c r="H136" t="s">
         <v>33</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="2">
         <v>1007976</v>
       </c>
       <c r="J136">
@@ -5411,7 +5413,7 @@
       <c r="H137" t="s">
         <v>34</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="2">
         <v>1007976</v>
       </c>
       <c r="J137">
@@ -5446,7 +5448,7 @@
       <c r="H138" t="s">
         <v>32</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="2">
         <v>1007976</v>
       </c>
       <c r="J138">
@@ -5481,7 +5483,7 @@
       <c r="H139" t="s">
         <v>34</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="2">
         <v>1007976</v>
       </c>
       <c r="J139">
@@ -5516,7 +5518,7 @@
       <c r="H140" t="s">
         <v>32</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="2">
         <v>1007975</v>
       </c>
       <c r="J140">
@@ -5551,7 +5553,7 @@
       <c r="H141" t="s">
         <v>33</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J141">
@@ -5586,7 +5588,7 @@
       <c r="H142" t="s">
         <v>44</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="2">
         <v>1007974</v>
       </c>
       <c r="K142">
@@ -5621,7 +5623,7 @@
       <c r="H143" t="s">
         <v>34</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="2">
         <v>1007974</v>
       </c>
       <c r="K143">
@@ -5656,7 +5658,7 @@
       <c r="H144" t="s">
         <v>34</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="2">
         <v>6510374</v>
       </c>
       <c r="J144">
@@ -5694,7 +5696,7 @@
       <c r="H145" t="s">
         <v>44</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="2">
         <v>6510374</v>
       </c>
       <c r="J145">
@@ -5732,7 +5734,7 @@
       <c r="H146" t="s">
         <v>34</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="2">
         <v>6510374</v>
       </c>
       <c r="J146">
@@ -5767,7 +5769,7 @@
       <c r="H147" t="s">
         <v>34</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="2">
         <v>1007974</v>
       </c>
       <c r="J147">
@@ -5901,7 +5903,7 @@
       <c r="H151" t="s">
         <v>34</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="2">
         <v>1004110</v>
       </c>
       <c r="J151">
@@ -6003,7 +6005,7 @@
       <c r="H154" t="s">
         <v>33</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="2">
         <v>1007977</v>
       </c>
       <c r="J154">
@@ -6038,7 +6040,7 @@
       <c r="H155" t="s">
         <v>32</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="2">
         <v>1007977</v>
       </c>
       <c r="J155">
@@ -6073,7 +6075,7 @@
       <c r="H156" t="s">
         <v>29</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="2">
         <v>1007977</v>
       </c>
       <c r="J156">
@@ -6108,7 +6110,7 @@
       <c r="H157" t="s">
         <v>34</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="2">
         <v>1004110</v>
       </c>
       <c r="J157">
@@ -6146,7 +6148,7 @@
       <c r="H158" t="s">
         <v>33</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="2">
         <v>1004109</v>
       </c>
       <c r="J158">
@@ -6181,7 +6183,7 @@
       <c r="H159" t="s">
         <v>34</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="2">
         <v>1007977</v>
       </c>
       <c r="J159">
@@ -6216,7 +6218,7 @@
       <c r="H160" t="s">
         <v>34</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="2">
         <v>1004109</v>
       </c>
       <c r="J160">
@@ -6251,7 +6253,7 @@
       <c r="H161" t="s">
         <v>32</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="2">
         <v>1004109</v>
       </c>
       <c r="J161">
@@ -6286,7 +6288,7 @@
       <c r="H162" t="s">
         <v>29</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="2">
         <v>1007974</v>
       </c>
       <c r="J162">
@@ -6324,7 +6326,7 @@
       <c r="H163" t="s">
         <v>33</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="2">
         <v>1007974</v>
       </c>
       <c r="J163">
@@ -6362,7 +6364,7 @@
       <c r="H164" t="s">
         <v>34</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="2">
         <v>1004109</v>
       </c>
       <c r="J164">
@@ -6397,7 +6399,7 @@
       <c r="H165" t="s">
         <v>32</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="2">
         <v>1004109</v>
       </c>
       <c r="J165">
@@ -6432,7 +6434,7 @@
       <c r="H166" t="s">
         <v>33</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="2">
         <v>1007974</v>
       </c>
       <c r="J166">
@@ -6467,7 +6469,7 @@
       <c r="H167" t="s">
         <v>29</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="2">
         <v>1007974</v>
       </c>
       <c r="J167">
@@ -6502,7 +6504,7 @@
       <c r="H168" t="s">
         <v>33</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="2">
         <v>1007974</v>
       </c>
       <c r="J168">
@@ -6537,7 +6539,7 @@
       <c r="H169" t="s">
         <v>29</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="2">
         <v>1007974</v>
       </c>
       <c r="J169">
@@ -6572,7 +6574,7 @@
       <c r="H170" t="s">
         <v>32</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="2">
         <v>1007974</v>
       </c>
       <c r="J170">
@@ -6607,7 +6609,7 @@
       <c r="H171" t="s">
         <v>34</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="2">
         <v>1004109</v>
       </c>
       <c r="J171">
@@ -6642,7 +6644,7 @@
       <c r="H172" t="s">
         <v>34</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="2">
         <v>1004109</v>
       </c>
       <c r="J172">
@@ -6677,7 +6679,7 @@
       <c r="H173" t="s">
         <v>33</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="2">
         <v>1007974</v>
       </c>
       <c r="J173">
@@ -6712,7 +6714,7 @@
       <c r="H174" t="s">
         <v>32</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="2">
         <v>1007974</v>
       </c>
       <c r="J174">
@@ -6776,7 +6778,7 @@
       <c r="H176" t="s">
         <v>33</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="2">
         <v>1007974</v>
       </c>
       <c r="J176">
@@ -6811,7 +6813,7 @@
       <c r="H177" t="s">
         <v>32</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="2">
         <v>1007974</v>
       </c>
       <c r="J177">
@@ -6849,7 +6851,7 @@
       <c r="H178" t="s">
         <v>29</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="2">
         <v>1007974</v>
       </c>
       <c r="J178">
@@ -6887,7 +6889,7 @@
       <c r="H179" t="s">
         <v>34</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="2">
         <v>1004109</v>
       </c>
       <c r="J179">
@@ -6922,7 +6924,7 @@
       <c r="H180" t="s">
         <v>33</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="2">
         <v>1007974</v>
       </c>
       <c r="J180">
@@ -6957,7 +6959,7 @@
       <c r="H181" t="s">
         <v>34</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="2">
         <v>1007974</v>
       </c>
       <c r="J181">
@@ -6992,7 +6994,7 @@
       <c r="H182" t="s">
         <v>33</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="2">
         <v>1004109</v>
       </c>
       <c r="J182">
@@ -7027,7 +7029,7 @@
       <c r="H183" t="s">
         <v>34</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="2">
         <v>1004109</v>
       </c>
       <c r="J183">
@@ -7062,7 +7064,7 @@
       <c r="H184" t="s">
         <v>29</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="2">
         <v>1004109</v>
       </c>
       <c r="J184">
@@ -7097,7 +7099,7 @@
       <c r="H185" t="s">
         <v>29</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="2">
         <v>1004109</v>
       </c>
       <c r="J185">
@@ -7132,7 +7134,7 @@
       <c r="H186" t="s">
         <v>33</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="2">
         <v>1007974</v>
       </c>
       <c r="J186">
@@ -7167,7 +7169,7 @@
       <c r="H187" t="s">
         <v>32</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="2">
         <v>1007974</v>
       </c>
       <c r="J187">
@@ -7202,7 +7204,7 @@
       <c r="H188" t="s">
         <v>34</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="2">
         <v>1007974</v>
       </c>
       <c r="J188">
@@ -7237,7 +7239,7 @@
       <c r="H189" t="s">
         <v>32</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="2">
         <v>1004109</v>
       </c>
       <c r="J189">
@@ -7272,7 +7274,7 @@
       <c r="H190" t="s">
         <v>34</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="2">
         <v>1004109</v>
       </c>
       <c r="J190">
@@ -7307,7 +7309,7 @@
       <c r="H191" t="s">
         <v>33</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="2">
         <v>6510374</v>
       </c>
       <c r="J191">
@@ -7342,7 +7344,7 @@
       <c r="H192" t="s">
         <v>32</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="2">
         <v>1004109</v>
       </c>
       <c r="J192">
@@ -7377,7 +7379,7 @@
       <c r="H193" t="s">
         <v>32</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="2">
         <v>1007974</v>
       </c>
       <c r="J193">
@@ -7412,7 +7414,7 @@
       <c r="H194" t="s">
         <v>34</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="2">
         <v>1004109</v>
       </c>
       <c r="J194">
@@ -7447,7 +7449,7 @@
       <c r="H195" t="s">
         <v>34</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="2">
         <v>1007974</v>
       </c>
       <c r="J195">
@@ -7482,7 +7484,7 @@
       <c r="H196" t="s">
         <v>33</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="2">
         <v>1004109</v>
       </c>
       <c r="J196">
@@ -7517,7 +7519,7 @@
       <c r="H197" t="s">
         <v>32</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="2">
         <v>1007974</v>
       </c>
       <c r="J197">
@@ -7561,7 +7563,7 @@
       <c r="H198" t="s">
         <v>29</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="2">
         <v>1007974</v>
       </c>
       <c r="J198">
@@ -7605,7 +7607,7 @@
       <c r="H199" t="s">
         <v>34</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="2">
         <v>1004109</v>
       </c>
       <c r="J199">
@@ -7640,7 +7642,7 @@
       <c r="H200" t="s">
         <v>33</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="2">
         <v>1004109</v>
       </c>
       <c r="J200">
@@ -7675,7 +7677,7 @@
       <c r="H201" t="s">
         <v>29</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="2">
         <v>1007974</v>
       </c>
       <c r="J201">
@@ -7710,7 +7712,7 @@
       <c r="H202" t="s">
         <v>32</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="2">
         <v>1007974</v>
       </c>
       <c r="J202">
@@ -7745,7 +7747,7 @@
       <c r="H203" t="s">
         <v>34</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="2">
         <v>1004109</v>
       </c>
       <c r="J203">
@@ -7780,7 +7782,7 @@
       <c r="H204" t="s">
         <v>33</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="2">
         <v>1004110</v>
       </c>
       <c r="J204">
@@ -7815,7 +7817,7 @@
       <c r="H205" t="s">
         <v>32</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="2">
         <v>1007974</v>
       </c>
       <c r="J205">
@@ -7856,7 +7858,7 @@
       <c r="H206" t="s">
         <v>29</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="2">
         <v>1007974</v>
       </c>
       <c r="J206">
@@ -7897,7 +7899,7 @@
       <c r="H207" t="s">
         <v>33</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="2">
         <v>6510374</v>
       </c>
       <c r="J207">
@@ -7932,7 +7934,7 @@
       <c r="H208" t="s">
         <v>34</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="2">
         <v>1004110</v>
       </c>
       <c r="J208">
@@ -7970,7 +7972,7 @@
       <c r="H209" t="s">
         <v>33</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="2">
         <v>1007974</v>
       </c>
       <c r="J209">
@@ -8005,7 +8007,7 @@
       <c r="H210" t="s">
         <v>32</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="2">
         <v>1004109</v>
       </c>
       <c r="J210">
@@ -8040,7 +8042,7 @@
       <c r="H211" t="s">
         <v>32</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="2">
         <v>1007974</v>
       </c>
       <c r="J211">
@@ -8075,7 +8077,7 @@
       <c r="H212" t="s">
         <v>29</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="2">
         <v>1004109</v>
       </c>
       <c r="J212">
@@ -8110,7 +8112,7 @@
       <c r="H213" t="s">
         <v>29</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="2">
         <v>1007974</v>
       </c>
       <c r="J213">
@@ -8145,7 +8147,7 @@
       <c r="H214" t="s">
         <v>33</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="2">
         <v>1004109</v>
       </c>
       <c r="J214">
@@ -8180,7 +8182,7 @@
       <c r="H215" t="s">
         <v>33</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="2">
         <v>1007974</v>
       </c>
       <c r="J215">
@@ -8212,7 +8214,7 @@
       <c r="H216" t="s">
         <v>34</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="2">
         <v>1007974</v>
       </c>
       <c r="J216">
@@ -8250,7 +8252,7 @@
       <c r="H217" t="s">
         <v>33</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="2">
         <v>1004109</v>
       </c>
       <c r="J217">
@@ -8285,7 +8287,7 @@
       <c r="H218" t="s">
         <v>33</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="2">
         <v>1007974</v>
       </c>
       <c r="J218">
@@ -8320,7 +8322,7 @@
       <c r="H219" t="s">
         <v>32</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="2">
         <v>1004109</v>
       </c>
       <c r="J219">
@@ -8355,7 +8357,7 @@
       <c r="H220" t="s">
         <v>32</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="2">
         <v>1007974</v>
       </c>
       <c r="J220">
@@ -8390,7 +8392,7 @@
       <c r="H221" t="s">
         <v>29</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="2">
         <v>1004109</v>
       </c>
       <c r="J221">
@@ -8425,7 +8427,7 @@
       <c r="H222" t="s">
         <v>29</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="2">
         <v>1007974</v>
       </c>
       <c r="J222">
@@ -8460,7 +8462,7 @@
       <c r="H223" t="s">
         <v>33</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="2">
         <v>1004109</v>
       </c>
       <c r="J223">
@@ -8495,7 +8497,7 @@
       <c r="H224" t="s">
         <v>29</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="2">
         <v>1004109</v>
       </c>
       <c r="J224">
@@ -8539,7 +8541,7 @@
       <c r="H225" t="s">
         <v>32</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="2">
         <v>1004109</v>
       </c>
       <c r="J225">
@@ -8580,7 +8582,7 @@
       <c r="H226" t="s">
         <v>33</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="2">
         <v>1004109</v>
       </c>
       <c r="J226">
@@ -8615,7 +8617,7 @@
       <c r="H227" t="s">
         <v>33</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="2">
         <v>6510374</v>
       </c>
       <c r="J227">
@@ -8650,7 +8652,7 @@
       <c r="H228" t="s">
         <v>33</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="2">
         <v>1007186</v>
       </c>
       <c r="J228">
@@ -8682,7 +8684,7 @@
       <c r="H229" t="s">
         <v>34</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="2">
         <v>1004109</v>
       </c>
       <c r="J229">
@@ -8714,7 +8716,7 @@
       <c r="H230" t="s">
         <v>35</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="2">
         <v>1004109</v>
       </c>
       <c r="J230">
@@ -8746,7 +8748,7 @@
       <c r="H231" t="s">
         <v>32</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="2">
         <v>1004109</v>
       </c>
       <c r="J231">
@@ -8778,7 +8780,7 @@
       <c r="H232" t="s">
         <v>34</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="2">
         <v>6510374</v>
       </c>
       <c r="J232">
@@ -8810,7 +8812,7 @@
       <c r="H233" t="s">
         <v>29</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="2">
         <v>6510374</v>
       </c>
       <c r="J233">
@@ -8865,7 +8867,7 @@
       <c r="H235" t="s">
         <v>35</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="2">
         <v>1004109</v>
       </c>
       <c r="J235">
@@ -8897,7 +8899,7 @@
       <c r="H236" t="s">
         <v>32</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="2">
         <v>1004109</v>
       </c>
       <c r="J236">
@@ -9205,7 +9207,7 @@
       <c r="H249" t="s">
         <v>34</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="2">
         <v>6510374</v>
       </c>
       <c r="J249">
@@ -9237,7 +9239,7 @@
       <c r="H250" t="s">
         <v>29</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="2">
         <v>6510374</v>
       </c>
       <c r="J250">
@@ -9407,7 +9409,7 @@
       <c r="H257" t="s">
         <v>34</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="2">
         <v>1004109</v>
       </c>
       <c r="J257">
@@ -9439,7 +9441,7 @@
       <c r="H258" t="s">
         <v>35</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="2">
         <v>1004109</v>
       </c>
       <c r="J258">
@@ -9471,7 +9473,7 @@
       <c r="H259" t="s">
         <v>32</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="2">
         <v>1004109</v>
       </c>
       <c r="J259">
@@ -9503,7 +9505,7 @@
       <c r="H260" t="s">
         <v>34</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="2">
         <v>6510374</v>
       </c>
       <c r="J260">
@@ -9535,7 +9537,7 @@
       <c r="H261" t="s">
         <v>29</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="2">
         <v>6510374</v>
       </c>
       <c r="J261">
@@ -9567,7 +9569,7 @@
       <c r="H262" t="s">
         <v>34</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="2">
         <v>1004109</v>
       </c>
       <c r="J262">
@@ -9622,7 +9624,7 @@
       <c r="H264" t="s">
         <v>35</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="2">
         <v>1004109</v>
       </c>
       <c r="J264">
@@ -9654,7 +9656,7 @@
       <c r="H265" t="s">
         <v>32</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="2">
         <v>1004109</v>
       </c>
       <c r="J265">
@@ -9962,7 +9964,7 @@
       <c r="H278" t="s">
         <v>34</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="2">
         <v>6510374</v>
       </c>
       <c r="J278">
@@ -9994,7 +9996,7 @@
       <c r="H279" t="s">
         <v>29</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="2">
         <v>6510374</v>
       </c>
       <c r="J279">
@@ -10164,7 +10166,7 @@
       <c r="H286" t="s">
         <v>34</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="2">
         <v>1004109</v>
       </c>
       <c r="J286">
@@ -10196,7 +10198,7 @@
       <c r="H287" t="s">
         <v>35</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="2">
         <v>1004109</v>
       </c>
       <c r="J287">
@@ -10228,7 +10230,7 @@
       <c r="H288" t="s">
         <v>32</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="2">
         <v>1004109</v>
       </c>
       <c r="J288">
@@ -10260,7 +10262,7 @@
       <c r="H289" t="s">
         <v>34</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="2">
         <v>6510374</v>
       </c>
       <c r="J289">
@@ -10292,7 +10294,7 @@
       <c r="H290" t="s">
         <v>29</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="2">
         <v>6510374</v>
       </c>
       <c r="J290">
@@ -10324,7 +10326,7 @@
       <c r="H291" t="s">
         <v>34</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="2">
         <v>1004109</v>
       </c>
       <c r="J291">
@@ -10379,7 +10381,7 @@
       <c r="H293" t="s">
         <v>35</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="2">
         <v>1004109</v>
       </c>
       <c r="J293">
@@ -10411,7 +10413,7 @@
       <c r="H294" t="s">
         <v>32</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="2">
         <v>1004109</v>
       </c>
       <c r="J294">
@@ -10719,7 +10721,7 @@
       <c r="H307" t="s">
         <v>34</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="2">
         <v>6510374</v>
       </c>
       <c r="J307">
@@ -10751,7 +10753,7 @@
       <c r="H308" t="s">
         <v>29</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="2">
         <v>6510374</v>
       </c>
       <c r="J308">
@@ -10924,7 +10926,7 @@
       <c r="H315" t="s">
         <v>33</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="2">
         <v>1004109</v>
       </c>
       <c r="J315">
@@ -10962,7 +10964,7 @@
       <c r="H316" t="s">
         <v>35</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="2">
         <v>1004109</v>
       </c>
       <c r="J316">
@@ -10997,7 +10999,7 @@
       <c r="H317" t="s">
         <v>32</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="2">
         <v>1004109</v>
       </c>
       <c r="J317">
@@ -11032,7 +11034,7 @@
       <c r="H318" t="s">
         <v>34</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="2">
         <v>6510374</v>
       </c>
       <c r="J318">
@@ -11067,7 +11069,7 @@
       <c r="H319" t="s">
         <v>29</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="2">
         <v>6510374</v>
       </c>
       <c r="J319">
@@ -11105,7 +11107,7 @@
       <c r="H320" t="s">
         <v>33</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="2">
         <v>1004109</v>
       </c>
       <c r="J320">
@@ -11169,7 +11171,7 @@
       <c r="H322" t="s">
         <v>35</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="2">
         <v>1004109</v>
       </c>
       <c r="J322">
@@ -11204,7 +11206,7 @@
       <c r="H323" t="s">
         <v>32</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="2">
         <v>1004109</v>
       </c>
       <c r="J323">
@@ -11551,7 +11553,7 @@
       <c r="H336" t="s">
         <v>34</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="2">
         <v>6510374</v>
       </c>
       <c r="J336">
@@ -11586,7 +11588,7 @@
       <c r="H337" t="s">
         <v>29</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="2">
         <v>6510374</v>
       </c>
       <c r="J337">
